--- a/doc/方案v0.1.xlsx
+++ b/doc/方案v0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
   <si>
     <t>hsd-framework-starter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,14 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OAuth2/jwt+shiro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限与登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,18 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础代码生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>java应用服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微服务基层框架为开发者提供了在分布式系统(如配置管理、服务发现、断路器、智能路由、微代理、控制总线、一次性Token、全局锁、决策竞选、分布式会话和集群状态)操作的开发工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Beetl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,19 +338,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jdk1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>springboot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写分离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,20 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务注册与发现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crapAPI</t>
-  </si>
-  <si>
-    <t>Rancher</t>
-  </si>
-  <si>
-    <t>配置文件分发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>springcloud config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker容器管理中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>API调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,6 +592,62 @@
   </si>
   <si>
     <t>spring cron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端技术 restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springcloud zuul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsd-account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lombok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义模板代码生成器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat/undertow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvs/keepalived</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,7 +663,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TCC型事务/补偿型事务 备用</t>
+      <t>补偿</t>
     </r>
     <r>
       <rPr>
@@ -680,31 +678,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端技术 restful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mina+websocket/socket.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springcloud zuul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API接口管理</t>
+    <t>Swagger2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utf-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名鉴权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbitMq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker+k8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oss/qiniu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务治理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -712,31 +746,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>docker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsd-account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log4j2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lombok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义模板代码生成器</t>
+    <t>分布式配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>网关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用监控中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crapApi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker容器管理中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rancher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>私库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harbor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -745,13 +821,18 @@
   </si>
   <si>
     <t>jekins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,11 +913,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="0.59999389629810485"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -871,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -908,30 +995,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -942,39 +1005,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -990,23 +1020,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1016,9 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,60 +1058,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -1787,10 +1775,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -1801,159 +1789,159 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29" t="s">
-        <v>160</v>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
-        <v>107</v>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29"/>
+      <c r="A18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
@@ -1964,9 +1952,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" t="s">
         <v>25</v>
       </c>
@@ -1975,9 +1963,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D21" t="s">
@@ -1988,9 +1976,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" t="s">
         <v>31</v>
       </c>
@@ -1999,9 +1987,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" t="s">
         <v>33</v>
       </c>
@@ -2010,115 +1998,115 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="C31" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="C32" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="C33" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2139,985 +2127,1056 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="15"/>
-    <col min="2" max="2" width="13.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="38.625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="14" customWidth="1"/>
-    <col min="9" max="10" width="4.625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="14" customWidth="1"/>
-    <col min="12" max="13" width="7.625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="8" style="14" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="14"/>
+    <col min="1" max="1" width="8.875" style="10"/>
+    <col min="2" max="2" width="13.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="9" customWidth="1"/>
+    <col min="9" max="10" width="4.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="9" customWidth="1"/>
+    <col min="12" max="13" width="7.625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="A6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="27">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.75">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75">
+      <c r="A17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="13">
+      <c r="E17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="13">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="13">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="13">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75">
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="13">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75">
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="13">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75">
-      <c r="A8" s="34"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="13">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="13">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75">
-      <c r="A10" s="34"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="13">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.75">
+      <c r="A32" s="24"/>
+      <c r="B32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.75">
-      <c r="A11" s="34"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.75">
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="13">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="27">
-      <c r="A12" s="34"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="1:14" ht="18.75">
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="13">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.75">
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="13">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="18.75">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="1:14" ht="18.75">
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" ht="18.75">
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75">
-      <c r="A15" s="34"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75">
-      <c r="A16" s="34"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75">
-      <c r="A17" s="34"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="13">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.75">
-      <c r="A18" s="34"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="13">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75">
-      <c r="A19" s="34"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="13">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75">
-      <c r="A20" s="34"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75">
-      <c r="A21" s="34"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="13">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75">
-      <c r="A22" s="34"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="13">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="18.75">
-      <c r="A24" s="34"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="13">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="18.75">
-      <c r="A30" s="34"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="13">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75">
-      <c r="A31" s="34"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="13">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="18.75">
-      <c r="A32" s="34"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="13">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="18.75">
-      <c r="A33" s="34"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="13">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="18.75">
-      <c r="A34" s="34"/>
-      <c r="B34" s="32"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="21"/>
-    </row>
-    <row r="35" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="13">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.75">
-      <c r="A36" s="34"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="21"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75">
-      <c r="A37" s="34"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="21"/>
-    </row>
-    <row r="38" spans="1:14" ht="18.75">
-      <c r="A38" s="34"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="21"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="18"/>
     </row>
     <row r="39" spans="1:14" ht="18.75">
-      <c r="A39" s="34"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="21"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="18"/>
     </row>
     <row r="40" spans="1:14" ht="18.75">
-      <c r="A40" s="34"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="21"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="18"/>
     </row>
     <row r="41" spans="1:14" ht="18.75">
-      <c r="A41" s="28"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="27"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="1:14" ht="18.75">
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" ht="18.75">
+      <c r="A43" s="25"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" ht="18.75">
+      <c r="A44" s="25"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="18"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="M2:M35" name="区域3"/>
+    <protectedRange sqref="M2:M37" name="区域3"/>
   </protectedRanges>
   <mergeCells count="9">
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A2:A42"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M35">
+  <conditionalFormatting sqref="M2:M37">
     <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3129,7 +3188,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36:M38">
+  <conditionalFormatting sqref="M38:M40">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3141,7 +3200,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39:M41">
+  <conditionalFormatting sqref="M41:M44">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3154,14 +3213,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:I35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:I37">
       <formula1>"√,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="M2:M35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="M2:M37">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3169,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A34:J80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3180,17 +3240,17 @@
   </cols>
   <sheetData>
     <row r="34" spans="1:1" ht="14.25">
-      <c r="A34" s="17" t="s">
-        <v>101</v>
+      <c r="A34" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.25">
-      <c r="A55" s="17" t="s">
-        <v>102</v>
+      <c r="A55" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="H57" s="18"/>
+      <c r="H57" s="13"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
@@ -3245,13 +3305,13 @@
       <c r="J67" s="1"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="19" t="s">
-        <v>103</v>
+      <c r="A78" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25">
-      <c r="A80" s="17" t="s">
-        <v>104</v>
+      <c r="A80" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/doc/方案v0.1.xlsx
+++ b/doc/方案v0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="173">
   <si>
     <t>hsd-framework-starter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,12 +486,6 @@
     <t>config</t>
   </si>
   <si>
-    <t>lib-app</t>
-  </si>
-  <si>
-    <t>lib-common</t>
-  </si>
-  <si>
     <t>logs</t>
   </si>
   <si>
@@ -500,14 +494,6 @@
   </si>
   <si>
     <t>存放项目配置文件/静态资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块jar包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖jar包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1066,17 +1052,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,38 +1061,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1213,8 +1175,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1758,7 +1720,7 @@
   <dimension ref="A3:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1775,10 +1737,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -1789,81 +1751,81 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
-        <v>138</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1873,8 +1835,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1886,8 +1848,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
         <v>17</v>
@@ -1897,8 +1859,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
         <v>18</v>
@@ -1908,8 +1870,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
@@ -1917,8 +1879,8 @@
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
@@ -1928,20 +1890,20 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
@@ -1952,9 +1914,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" t="s">
         <v>25</v>
       </c>
@@ -1963,9 +1925,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D21" t="s">
@@ -1976,9 +1938,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" t="s">
         <v>31</v>
       </c>
@@ -1987,9 +1949,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" t="s">
         <v>33</v>
       </c>
@@ -1998,34 +1960,34 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>98</v>
@@ -2034,7 +1996,7 @@
         <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2042,7 +2004,7 @@
         <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2050,63 +2012,47 @@
         <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2076,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2151,7 +2097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23"/>
+      <c r="A1" s="20"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -2185,14 +2131,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -2209,12 +2155,12 @@
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21" t="s">
-        <v>149</v>
+      <c r="A3" s="23"/>
+      <c r="B3" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -2229,14 +2175,14 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="18"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -2253,14 +2199,14 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="24"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -2277,8 +2223,8 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2297,16 +2243,16 @@
       <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -2323,9 +2269,9 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="18.75">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="18" t="s">
         <v>80</v>
       </c>
@@ -2347,8 +2293,8 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="18.75">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
         <v>39</v>
       </c>
@@ -2371,8 +2317,8 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="18.75">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
@@ -2395,8 +2341,8 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="18.75">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="18" t="s">
         <v>43</v>
       </c>
@@ -2419,13 +2365,13 @@
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="18.75">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="2"/>
@@ -2443,8 +2389,8 @@
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="27">
-      <c r="A13" s="24"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
@@ -2469,16 +2415,16 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" ht="18.75">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
@@ -2495,13 +2441,13 @@
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" ht="18.75">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="2"/>
@@ -2515,8 +2461,8 @@
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14" ht="18.75">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="18" t="s">
         <v>51</v>
       </c>
@@ -2535,8 +2481,8 @@
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="18.75">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="18" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2490,7 @@
         <v>90</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
@@ -2561,13 +2507,13 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="18.75">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="2"/>
@@ -2585,13 +2531,13 @@
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="18.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="2"/>
@@ -2609,13 +2555,13 @@
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" ht="18.75">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="2"/>
@@ -2633,13 +2579,13 @@
       <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14" ht="18.75">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="2"/>
@@ -2653,13 +2599,13 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" ht="18.75">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
@@ -2675,13 +2621,13 @@
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" ht="18.75">
-      <c r="A23" s="24"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="2"/>
@@ -2699,10 +2645,10 @@
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14" ht="18.75">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
@@ -2717,8 +2663,8 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2739,8 +2685,8 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14" ht="18.75">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
         <v>57</v>
       </c>
@@ -2763,8 +2709,8 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="5" t="s">
         <v>59</v>
       </c>
@@ -2787,8 +2733,8 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="18" t="s">
         <v>61</v>
       </c>
@@ -2807,8 +2753,8 @@
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -2818,7 +2764,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
@@ -2835,8 +2781,8 @@
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="18" t="s">
         <v>66</v>
       </c>
@@ -2857,13 +2803,13 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="2"/>
@@ -2879,9 +2825,9 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" ht="18.75">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22" t="s">
-        <v>162</v>
+      <c r="A32" s="23"/>
+      <c r="B32" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>69</v>
@@ -2905,13 +2851,13 @@
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14" ht="18.75">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="2"/>
@@ -2929,8 +2875,8 @@
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" ht="18.75">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="18" t="s">
         <v>71</v>
       </c>
@@ -2953,10 +2899,10 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" ht="18.75">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>73</v>
@@ -2977,13 +2923,13 @@
       <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14" ht="18.75">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="2"/>
@@ -2997,15 +2943,15 @@
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22" t="s">
-        <v>134</v>
+      <c r="A37" s="23"/>
+      <c r="B37" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="2"/>
@@ -3021,13 +2967,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:14" ht="18.75">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="2"/>
@@ -3041,13 +2987,13 @@
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="1:14" ht="18.75">
-      <c r="A39" s="24"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="2"/>
@@ -3061,13 +3007,13 @@
       <c r="N39" s="18"/>
     </row>
     <row r="40" spans="1:14" ht="18.75">
-      <c r="A40" s="24"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="2"/>
@@ -3081,13 +3027,13 @@
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="1:14" ht="18.75">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="2"/>
@@ -3101,13 +3047,13 @@
       <c r="N41" s="18"/>
     </row>
     <row r="42" spans="1:14" ht="18.75">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="2"/>
@@ -3121,13 +3067,13 @@
       <c r="N42" s="18"/>
     </row>
     <row r="43" spans="1:14" ht="18.75">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="2"/>
@@ -3141,13 +3087,13 @@
       <c r="N43" s="18"/>
     </row>
     <row r="44" spans="1:14" ht="18.75">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="2"/>
@@ -3165,49 +3111,49 @@
     <protectedRange sqref="M2:M37" name="区域3"/>
   </protectedRanges>
   <mergeCells count="9">
+    <mergeCell ref="A2:A42"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B4:B24"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B44"/>
     <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A2:A42"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M2:M37">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:M40">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:M44">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
